--- a/DesignFiles/Excel/andja Itemlist.xlsx
+++ b/DesignFiles/Excel/andja Itemlist.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -812,14 +812,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="double">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -920,45 +920,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D121" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A1:D121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D121" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:D121" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="SatisfiesNeed"/>
-    <tableColumn id="3" name="DecaySpeed"/>
-    <tableColumn id="4" name="German" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SatisfiesNeed"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DecaySpeed"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="German" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="E1:E121" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="E1:E121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle5" displayName="Tabelle5" ref="E1:E121" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="E1:E121" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="English" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="English" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:E87" tableType="xml" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3">
-  <autoFilter ref="A1:E87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:E87" tableType="xml" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
+  <autoFilter ref="A1:E87" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="ID" name="ID">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="3" xpath="/Items/Item/@ID" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="SatisfiesNeed" name="SatisfiesNeed">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="SatisfiesNeed" name="SatisfiesNeed">
       <xmlColumnPr mapId="3" xpath="/Items/Item/SatisfiesNeed" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Decays" name="DecaySpeed">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="Decays" name="DecaySpeed">
       <xmlColumnPr mapId="3" xpath="/Items/Item/Decays" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="EN_Name" name="English" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" uniqueName="EN_Name" name="English" dataDxfId="1">
       <xmlColumnPr mapId="3" xpath="/Items/Item/EN_Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="DE_Name" name="German" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" uniqueName="DE_Name" name="German" dataDxfId="0">
       <xmlColumnPr mapId="3" xpath="/Items/Item/DE_Name" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -1262,7 +1262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
@@ -2901,11 +2901,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
